--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1222" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6B64E13-0540-4BA3-8CED-5B054B79758F}"/>
+  <xr:revisionPtr revIDLastSave="1246" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97ACF940-028D-493D-9725-B15128AB29AD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
   <si>
     <t>EAGER</t>
   </si>
@@ -398,13 +398,31 @@
   <si>
     <t>Freshness</t>
   </si>
+  <si>
+    <t>Multiple Stores</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1 store</t>
+  </si>
+  <si>
+    <t>multiple stores</t>
+  </si>
+  <si>
+    <t>Single Store</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -475,7 +493,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -10479,6 +10497,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-99B2-4F7B-9045-D9A69AAE7074}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -12452,6 +12475,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1163676784"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -13687,6 +13711,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1582670240"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -13978,7 +14003,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -22779,6 +22803,459 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Overhead comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1110:$D$1110</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Single Store</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multiple Stores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$1111,Tabelle1!$D$1111)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1454546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1712337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED78-4BEA-8285-A2259066F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1110:$D$1110</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Single Store</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multiple Stores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$E$1111,Tabelle1!$F$1111)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1569320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1629462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ED78-4BEA-8285-A2259066F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="360919928"/>
+        <c:axId val="360916648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="360919928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360916648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360916648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360919928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -25272,7 +25749,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -25734,7 +26210,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -29946,6 +30421,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -43468,6 +43983,509 @@
 
 <file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -48783,6 +49801,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>1105</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1120</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903F9ACC-CBF7-4A3B-971F-D7E0756E544B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -49049,10 +50103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T1094"/>
+  <dimension ref="A2:T1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1104" sqref="H1104"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F855" sqref="F855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62335,6 +63389,48 @@
         <v>19.056640000000002</v>
       </c>
     </row>
+    <row r="1109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1111">
+        <v>1454546</v>
+      </c>
+      <c r="D1111">
+        <v>1712337</v>
+      </c>
+      <c r="E1111">
+        <v>1569320</v>
+      </c>
+      <c r="F1111">
+        <v>1629462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1246" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97ACF940-028D-493D-9725-B15128AB29AD}"/>
+  <xr:revisionPtr revIDLastSave="1247" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF0D67A-3F70-46B2-958E-BC15D36A8486}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
   <si>
     <t>EAGER</t>
   </si>
@@ -50105,8 +50105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F855" sqref="F855"/>
+    <sheetView tabSelected="1" topLeftCell="A568" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E496" sqref="E496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57342,7 +57342,7 @@
         <v>5532.8650833333322</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B489" s="3" t="s">
         <v>37</v>
       </c>
@@ -57352,8 +57352,11 @@
       <c r="D489" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F489" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -57361,7 +57364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>0</v>
       </c>
@@ -57372,7 +57375,7 @@
         <v>2875.645</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>5</v>
       </c>
@@ -57383,7 +57386,7 @@
         <v>3020.3919999999998</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>10</v>
       </c>
@@ -57394,7 +57397,7 @@
         <v>3123.4470000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>15</v>
       </c>
@@ -57405,7 +57408,7 @@
         <v>2808.2190000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>20</v>
       </c>
@@ -57416,7 +57419,7 @@
         <v>2918.665</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>25</v>
       </c>

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1247" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF0D67A-3F70-46B2-958E-BC15D36A8486}"/>
+  <xr:revisionPtr revIDLastSave="1289" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6827E337-3F0B-4E4B-9834-977975EC73DB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
   <si>
     <t>EAGER</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t>Single Store</t>
+  </si>
+  <si>
+    <t>0% Freshness</t>
+  </si>
+  <si>
+    <t>HSQL -&gt; PSQL</t>
+  </si>
+  <si>
+    <t>PSQL -&gt; HSQL</t>
   </si>
 </sst>
 </file>
@@ -3196,7 +3205,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PSQL(EAGER)-HSQL(LAZY)</c:v>
+            <c:v>HSQL(EAGER)-PSQL(LAZY)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3248,7 +3257,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>HSQL(EAGER)-PSQL(LAZY)</c:v>
+            <c:v>PSQL(EAGER)-HSQL(LAZY)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -14348,6 +14357,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$719</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -23170,6 +23190,1859 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="360919928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Freshness Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> 100/0 50/50 0/100</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$942</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50% Freshness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$944:$A$1004</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$944:$D$1004</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>471.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433.27499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>509.036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>428.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>946.98199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355.286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1125.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.575999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.91499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109.43300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>348.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>432.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>154.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180.012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>194.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>223.40700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>205.90299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>202.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>198.298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>197.45099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200.209</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>194.56899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>196.52199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>198.798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>198.042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>197.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>196.571</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>200.06899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195.679</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>192.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>199.06899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>195.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>200.34800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>199.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>191.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>193.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>190.78200000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>196.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>197.803</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>193.21600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>194.03100000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>197.399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>196.69900000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>202.553</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>208.18</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>236.97900000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>196.142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>192.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>196.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>194.899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>191.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>185.708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1857-4C82-A938-BC1924FA6EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$942</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% Freshness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$944:$A$1004</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$944:$C$1003</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>960.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>883.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882.35299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>866.07299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>848.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>863.21500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>862.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872.96500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>858.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>842.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>856.43899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>860.06399999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>849.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>853.048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>857.60299999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>860.50400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>859.096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>854.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900.72199999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>867.15099999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>846.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>859.38300000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>852.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>889.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>884.04399999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1016.0410000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1100.152</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1212.81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1530.652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2272.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1277.1310000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>980.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1117.963</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1077.1489999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>878.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>884.471</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>858.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>850.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>856.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>853.40200000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>864.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>914.399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>875.30100000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>891.50800000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>851.173</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>850.81399999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>852.59699999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>849.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>859.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>859.02599999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>853.27099999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>852.88599999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>865.70500000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>846.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>860.77700000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>852.04600000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>852.88300000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>862.505</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>837.64099999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1857-4C82-A938-BC1924FA6EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$942</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0% Freshness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$944:$B$1003</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1518.1010000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1297.7049999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1247.0160000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1172.8019999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1157.9880000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1133.2539999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1153.768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1111.479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1139.067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1105.721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1117.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1137.585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1135.3050000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1099.498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1093.386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1092.1410000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1102.0889999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1087.4469999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1093.8779999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1087.664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1088.771</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1113.5409999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1092.8710000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1074.2059999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1095.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1097.5989999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1100.3610000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1102.9349999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1096.5170000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1077.2280000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1103.847</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1111.2909999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1107.643</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1078.2159999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1069.46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1070.9970000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1064.164</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1073.126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1086.74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1098.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1082.838</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1082.729</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1092.921</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1097.9010000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1085.116</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1090.0509999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1098.6320000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1102.4949999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1207.2059999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1095.825</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1114.7429999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1124.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1241.299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1149.3620000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1113.529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1101.414</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1110.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1258.7829999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1139.7070000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1112.1189999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1857-4C82-A938-BC1924FA6EA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1582677784"/>
+        <c:axId val="1582679096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1582677784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582679096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582679096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582677784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Mixed Workload</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1083</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSQL -&gt; PSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1087:$F$1088</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0% Freshness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100% Freshness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$B$1088,Tabelle1!$C$1089)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2504.6599333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3559-4B76-B538-ADE312235395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1084</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSQL -&gt; HSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$F$1087:$F$1088</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0% Freshness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100% Freshness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$C$1088,Tabelle1!$B$1089)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2856.9496500000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3559-4B76-B538-ADE312235395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1149524296"/>
+        <c:axId val="1149521016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1149524296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149521016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1149521016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1149524296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30461,6 +32334,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -44485,6 +46438,1025 @@
 </file>
 
 <file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -48762,15 +51734,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
+      <xdr:colOff>338136</xdr:colOff>
       <xdr:row>426</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>440</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49694,15 +52666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>1025</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>1030</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1042</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1048</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49729,15 +52701,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>969</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>963</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>985</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>979</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -49832,6 +52804,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>984</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1000</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="60" name="Chart 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7706127E-E346-49C9-952D-BA8DAF61F8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>1068</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>1083</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63294BE5-0DAE-4F91-A3A4-5770EE852155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -50105,8 +53151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E496" sqref="E496"/>
+    <sheetView tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1065" sqref="L1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61596,6 +64642,9 @@
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B942" t="s">
+        <v>127</v>
+      </c>
       <c r="C942" t="s">
         <v>103</v>
       </c>
@@ -63139,7 +66188,7 @@
         <v>2237.6950000000002</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>230</v>
       </c>
@@ -63153,7 +66202,7 @@
         <v>2549.1889999999999</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>235</v>
       </c>
@@ -63167,7 +66216,7 @@
         <v>2456.1120000000001</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>240</v>
       </c>
@@ -63181,7 +66230,7 @@
         <v>2259.09</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076">
         <v>245</v>
       </c>
@@ -63195,7 +66244,7 @@
         <v>1838.634</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077">
         <v>250</v>
       </c>
@@ -63209,7 +66258,7 @@
         <v>2351.7220000000002</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>255</v>
       </c>
@@ -63223,7 +66272,7 @@
         <v>6755.4470000000001</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>260</v>
       </c>
@@ -63237,7 +66286,7 @@
         <v>4283.2839999999997</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>265</v>
       </c>
@@ -63251,7 +66300,7 @@
         <v>2237.6950000000002</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>270</v>
       </c>
@@ -63265,7 +66314,7 @@
         <v>2265.2150000000001</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082">
         <v>275</v>
       </c>
@@ -63279,7 +66328,7 @@
         <v>2255.5160000000001</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083">
         <v>280</v>
       </c>
@@ -63292,8 +66341,11 @@
       <c r="D1083">
         <v>2256.163</v>
       </c>
-    </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1083" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084">
         <v>285</v>
       </c>
@@ -63306,8 +66358,11 @@
       <c r="D1084">
         <v>3162.6779999999999</v>
       </c>
-    </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1084" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085">
         <v>290</v>
       </c>
@@ -63321,7 +66376,7 @@
         <v>2444.203</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086">
         <v>295</v>
       </c>
@@ -63333,6 +66388,42 @@
       </c>
       <c r="D1086">
         <v>2704.2919999999999</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1087" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1088">
+        <f>AVERAGE(B1027:B1086)</f>
+        <v>2504.6599333333334</v>
+      </c>
+      <c r="C1088">
+        <f>AVERAGE(C1027:C1086)</f>
+        <v>2856.9496500000014</v>
+      </c>
+      <c r="D1088">
+        <f>AVERAGE(D1027:D1086)</f>
+        <v>3103.6295833333338</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1089">
+        <v>2620</v>
+      </c>
+      <c r="C1089">
+        <v>3050</v>
       </c>
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.25">

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1289" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6827E337-3F0B-4E4B-9834-977975EC73DB}"/>
+  <xr:revisionPtr revIDLastSave="1296" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02E4D44-E14E-43B3-8868-224BBDFC286B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>EAGER</t>
   </si>
@@ -25043,6 +25043,458 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1149524296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Avg.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Response Time PSQL and HSQL</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$216</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7207-4CE6-B87E-FE2A69DFC51A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$M$216</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7207-4CE6-B87E-FE2A69DFC51A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="956758688"/>
+        <c:axId val="951091760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956758688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951091760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951091760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Avg. Response Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956758688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32414,6 +32866,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -47457,6 +47949,509 @@
 </file>
 
 <file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -52883,6 +53878,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="62" name="Chart 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CC40E3-6C5C-4B10-8029-C9F6EDB5820A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -53151,8 +54184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1057" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1065" sqref="L1065"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R236" sqref="R236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56914,7 +57947,7 @@
         <v>4087.8159999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>205</v>
       </c>
@@ -56925,7 +57958,7 @@
         <v>4125.6949999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
@@ -56936,7 +57969,7 @@
         <v>4320.8040000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>215</v>
       </c>
@@ -56947,7 +57980,7 @@
         <v>4188.0370000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>220</v>
       </c>
@@ -56958,7 +57991,7 @@
         <v>4319.9170000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>225</v>
       </c>
@@ -56969,7 +58002,7 @@
         <v>4227.9250000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>230</v>
       </c>
@@ -56980,7 +58013,7 @@
         <v>4446.2280000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>235</v>
       </c>
@@ -56991,7 +58024,7 @@
         <v>4106.9880000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>240</v>
       </c>
@@ -57001,8 +58034,14 @@
       <c r="C216">
         <v>4002.462</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L216" t="s">
+        <v>2</v>
+      </c>
+      <c r="M216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>245</v>
       </c>
@@ -57012,8 +58051,14 @@
       <c r="C217">
         <v>4018.5129999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>2110</v>
+      </c>
+      <c r="M217">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>250</v>
       </c>
@@ -57024,7 +58069,7 @@
         <v>3871.2849999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>255</v>
       </c>
@@ -57035,7 +58080,7 @@
         <v>3923.9119999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>260</v>
       </c>
@@ -57046,7 +58091,7 @@
         <v>4080.5630000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>265</v>
       </c>
@@ -57057,7 +58102,7 @@
         <v>4085.7570000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>270</v>
       </c>
@@ -57068,7 +58113,7 @@
         <v>4104.3329999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>275</v>
       </c>
@@ -57079,7 +58124,7 @@
         <v>4077.6819999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>280</v>
       </c>

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1296" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F02E4D44-E14E-43B3-8868-224BBDFC286B}"/>
+  <xr:revisionPtr revIDLastSave="1304" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658CCAF7-73B9-4FF5-AECF-216B8B8066CE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10800" yWindow="180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="133">
   <si>
     <t>EAGER</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>PSQL -&gt; HSQL</t>
+  </si>
+  <si>
+    <t>hsqldb</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>monetdb</t>
   </si>
 </sst>
 </file>
@@ -25495,6 +25504,467 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="956758688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Store comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hsqldb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$1126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1235578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF62-4EDB-BC16-1F02ECE7AD73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>postgres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$1126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>628942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF62-4EDB-BC16-1F02ECE7AD73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$1125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monetdb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$1126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>832964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EF62-4EDB-BC16-1F02ECE7AD73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="360919928"/>
+        <c:axId val="360916648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="360919928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360916648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="360916648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360919928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32906,6 +33376,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -48452,6 +48962,509 @@
 </file>
 
 <file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style38.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -53916,6 +54929,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1204913</xdr:colOff>
+      <xdr:row>1142</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="63" name="Chart 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E97E083-D657-4AFC-8296-E9ED3327B477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -54182,10 +55233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T1111"/>
+  <dimension ref="A2:T1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R236" sqref="R236"/>
+    <sheetView tabSelected="1" topLeftCell="A1115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1148" sqref="N1148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67570,6 +68621,28 @@
         <v>1629462</v>
       </c>
     </row>
+    <row r="1125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1126">
+        <v>1235578</v>
+      </c>
+      <c r="D1126">
+        <v>628942</v>
+      </c>
+      <c r="E1126">
+        <v>832964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1304" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658CCAF7-73B9-4FF5-AECF-216B8B8066CE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10800" yWindow="180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -55235,8 +55235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1148" sqref="N1148"/>
+    <sheetView tabSelected="1" topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L812" sqref="L812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658CCAF7-73B9-4FF5-AECF-216B8B8066CE}"/>
+  <xr:revisionPtr revIDLastSave="1306" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18690590-3CE9-4D5F-8E46-B135816A971C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55235,8 +55235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L812" sqref="L812"/>
+    <sheetView tabSelected="1" topLeftCell="A1062" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L602" sqref="L602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62468,11 +62468,11 @@
         <v>3492.3136000000004</v>
       </c>
       <c r="D478">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D417:D476)</f>
         <v>3441.3682333333336</v>
       </c>
       <c r="E478">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E417:E476)</f>
         <v>3943.1867666666662</v>
       </c>
       <c r="F478">

--- a/report/Plot/result.xlsx
+++ b/report/Plot/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://endresshauser-my.sharepoint.com/personal/marc_hennemann_endress_com/Documents/Uni/Research/DBIS/Master/thesis/report/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18690590-3CE9-4D5F-8E46-B135816A971C}"/>
+  <xr:revisionPtr revIDLastSave="1312" documentId="11_AD4DB114E441178AC67DF4743614E062683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B13A4CD-E56F-47DE-A822-696066633F61}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
   <si>
     <t>EAGER</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>monetdb</t>
+  </si>
+  <si>
+    <t>psql 1</t>
+  </si>
+  <si>
+    <t>psql3</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -55235,8 +55247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1062" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L602" sqref="L602"/>
+    <sheetView tabSelected="1" topLeftCell="A774" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L659" sqref="L659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63448,13 +63460,19 @@
     </row>
     <row r="632" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E632" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="F632" t="s">
         <v>71</v>
       </c>
       <c r="G632" t="s">
         <v>72</v>
+      </c>
+      <c r="I632" t="s">
+        <v>133</v>
+      </c>
+      <c r="J632" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="633" spans="5:10" x14ac:dyDescent="0.25">
@@ -63865,7 +63883,7 @@
         <v>5300.7610000000004</v>
       </c>
     </row>
-    <row r="657" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E657">
         <v>120</v>
       </c>
@@ -63882,7 +63900,7 @@
         <v>5354.6139999999996</v>
       </c>
     </row>
-    <row r="658" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E658">
         <v>125</v>
       </c>
@@ -63899,7 +63917,7 @@
         <v>5282.0309999999999</v>
       </c>
     </row>
-    <row r="659" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E659">
         <v>130</v>
       </c>
@@ -63915,8 +63933,11 @@
       <c r="J659">
         <v>5344.7179999999998</v>
       </c>
-    </row>
-    <row r="660" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="L659" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="660" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E660">
         <v>135</v>
       </c>
@@ -63933,7 +63954,7 @@
         <v>5291.951</v>
       </c>
     </row>
-    <row r="661" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E661">
         <v>140</v>
       </c>
@@ -63950,7 +63971,7 @@
         <v>5345.4880000000003</v>
       </c>
     </row>
-    <row r="662" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E662">
         <v>145</v>
       </c>
@@ -63967,7 +63988,7 @@
         <v>5259.8530000000001</v>
       </c>
     </row>
-    <row r="663" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E663">
         <v>150</v>
       </c>
@@ -63984,7 +64005,7 @@
         <v>5238.1419999999998</v>
       </c>
     </row>
-    <row r="664" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E664">
         <v>155</v>
       </c>
@@ -64001,7 +64022,7 @@
         <v>5197.6750000000002</v>
       </c>
     </row>
-    <row r="665" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E665">
         <v>160</v>
       </c>
@@ -64018,7 +64039,7 @@
         <v>5364.098</v>
       </c>
     </row>
-    <row r="666" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E666">
         <v>165</v>
       </c>
@@ -64035,7 +64056,7 @@
         <v>5394.8919999999998</v>
       </c>
     </row>
-    <row r="667" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E667">
         <v>170</v>
       </c>
@@ -64052,7 +64073,7 @@
         <v>5320.6689999999999</v>
       </c>
     </row>
-    <row r="668" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E668">
         <v>175</v>
       </c>
@@ -64069,7 +64090,7 @@
         <v>5279.7190000000001</v>
       </c>
     </row>
-    <row r="669" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E669">
         <v>180</v>
       </c>
@@ -64086,7 +64107,7 @@
         <v>5169.107</v>
       </c>
     </row>
-    <row r="670" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E670">
         <v>185</v>
       </c>
@@ -64103,7 +64124,7 @@
         <v>5222.8909999999996</v>
       </c>
     </row>
-    <row r="671" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E671">
         <v>190</v>
       </c>
@@ -64120,7 +64141,7 @@
         <v>5227.9210000000003</v>
       </c>
     </row>
-    <row r="672" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E672">
         <v>195</v>
       </c>
@@ -64569,6 +64590,9 @@
       <c r="E701">
         <v>340</v>
       </c>
+      <c r="F701" s="4">
+        <v>0</v>
+      </c>
       <c r="G701">
         <v>2416</v>
       </c>
@@ -64577,6 +64601,9 @@
       <c r="E702">
         <v>345</v>
       </c>
+      <c r="F702" s="4">
+        <v>0</v>
+      </c>
       <c r="G702">
         <v>2215</v>
       </c>
@@ -64585,6 +64612,9 @@
       <c r="E703">
         <v>350</v>
       </c>
+      <c r="F703" s="4">
+        <v>0</v>
+      </c>
       <c r="G703">
         <v>2014</v>
       </c>
@@ -64593,6 +64623,9 @@
       <c r="E704">
         <v>355</v>
       </c>
+      <c r="F704" s="4">
+        <v>0</v>
+      </c>
       <c r="G704">
         <v>1813</v>
       </c>
@@ -64601,6 +64634,9 @@
       <c r="E705">
         <v>360</v>
       </c>
+      <c r="F705" s="4">
+        <v>0</v>
+      </c>
       <c r="G705">
         <v>1612</v>
       </c>
@@ -64609,6 +64645,9 @@
       <c r="E706">
         <v>365</v>
       </c>
+      <c r="F706" s="4">
+        <v>0</v>
+      </c>
       <c r="G706">
         <v>1411</v>
       </c>
@@ -64617,6 +64656,9 @@
       <c r="E707">
         <v>370</v>
       </c>
+      <c r="F707" s="4">
+        <v>0</v>
+      </c>
       <c r="G707">
         <v>1210</v>
       </c>
@@ -64625,6 +64667,9 @@
       <c r="E708">
         <v>375</v>
       </c>
+      <c r="F708" s="4">
+        <v>0</v>
+      </c>
       <c r="G708">
         <v>1009</v>
       </c>
@@ -64633,6 +64678,9 @@
       <c r="E709">
         <v>380</v>
       </c>
+      <c r="F709" s="4">
+        <v>0</v>
+      </c>
       <c r="G709">
         <v>808</v>
       </c>
@@ -64641,6 +64689,9 @@
       <c r="E710">
         <v>385</v>
       </c>
+      <c r="F710" s="4">
+        <v>0</v>
+      </c>
       <c r="G710">
         <v>607</v>
       </c>
@@ -64649,6 +64700,9 @@
       <c r="E711">
         <v>390</v>
       </c>
+      <c r="F711" s="4">
+        <v>0</v>
+      </c>
       <c r="G711">
         <v>406</v>
       </c>
@@ -64657,6 +64711,9 @@
       <c r="E712">
         <v>395</v>
       </c>
+      <c r="F712" s="4">
+        <v>0</v>
+      </c>
       <c r="G712">
         <v>205</v>
       </c>
@@ -64665,6 +64722,9 @@
       <c r="E713">
         <v>400</v>
       </c>
+      <c r="F713" s="4">
+        <v>0</v>
+      </c>
       <c r="G713">
         <v>4</v>
       </c>
@@ -64672,6 +64732,9 @@
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E714">
         <v>405</v>
+      </c>
+      <c r="F714" s="4">
+        <v>0</v>
       </c>
       <c r="G714" s="4">
         <v>0</v>
